--- a/regions/5/garemos dacva/garemos dacva.xlsx
+++ b/regions/5/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="სამცხე-ჯავახეთი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -92,12 +92,6 @@
     </r>
   </si>
   <si>
-    <t>ტყის ფონდის ფართობი* - 133 ათასი ჰექტარი</t>
-  </si>
-  <si>
-    <t>აქედან, ტყით დაფარული ფართობი* - 130 ათასი ჰექტარი</t>
-  </si>
-  <si>
     <t>ტყის ჭრით მიღებული ხე-ტყის მოცულობა* (კუბური მეტრი)</t>
   </si>
   <si>
@@ -105,16 +99,21 @@
   </si>
   <si>
     <t>პირობითი აღნიშვნები:</t>
+  </si>
+  <si>
+    <t>ტყის ფონდის ფართობი* - 122 ათასი ჰექტარი</t>
+  </si>
+  <si>
+    <t>აქედან, ტყით დაფარული ფართობი* - 117 ათასი ჰექტარი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
-    <numFmt numFmtId="166" formatCode="#\ ##0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -228,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,9 +251,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -270,29 +266,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,33 +607,37 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -647,50 +647,60 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>2013</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>2014</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>2015</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2016</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>2017</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>2018</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>2019</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="13">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>91197</v>
@@ -716,10 +726,16 @@
       <c r="I6" s="8">
         <v>88132</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="8">
+        <v>79814</v>
+      </c>
+      <c r="K6" s="8">
+        <v>84983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8">
         <v>752</v>
@@ -745,8 +761,14 @@
       <c r="I7" s="8">
         <v>7113</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="8">
+        <v>1889</v>
+      </c>
+      <c r="K7" s="8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -774,8 +796,14 @@
       <c r="I8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -791,7 +819,7 @@
       <c r="E9" s="8">
         <v>28</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -800,11 +828,17 @@
       <c r="H9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -817,36 +851,44 @@
       <c r="D10" s="10">
         <v>1.2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>1.4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1.9</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>1.5</v>
       </c>
-      <c r="H10" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="10">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="J10" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -874,102 +916,124 @@
       <c r="I12" s="10">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="J12" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0.1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0.2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0.2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="11">
         <v>0.3</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="11">
         <v>0.2</v>
       </c>
-      <c r="H13" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -978,7 +1042,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -987,7 +1051,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -996,7 +1060,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1005,7 +1069,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1014,7 +1078,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1023,7 +1087,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1032,7 +1096,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1043,15 +1107,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regions/5/garemos dacva/garemos dacva.xlsx
+++ b/regions/5/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="სამცხე-ჯავახეთი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,10 +284,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,35 +607,37 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
@@ -649,8 +651,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -664,8 +667,9 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="12">
         <v>2013</v>
@@ -697,8 +701,11 @@
       <c r="K5" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -732,8 +739,11 @@
       <c r="K6" s="8">
         <v>84983</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="8">
+        <v>71590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,8 +777,11 @@
       <c r="K7" s="8">
         <v>533</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -802,8 +815,11 @@
       <c r="K8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,8 +853,11 @@
       <c r="K9" s="8">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -872,8 +891,11 @@
       <c r="K10" s="10">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
@@ -887,8 +909,9 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -922,8 +945,11 @@
       <c r="K12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
@@ -957,8 +983,11 @@
       <c r="K13" s="11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
@@ -972,8 +1001,9 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>8</v>
       </c>
@@ -987,8 +1017,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1033,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1049,9 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1065,9 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1042,7 +1076,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1051,7 +1085,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1060,7 +1094,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1069,7 +1103,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1078,7 +1112,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1087,7 +1121,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1096,7 +1130,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1107,15 +1141,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
